--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="расписание" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="318">
   <si>
     <t>введение в язык</t>
   </si>
@@ -890,7 +890,160 @@
     <t>билдер быстрый и потоко небезопасный и несинхронизированный</t>
   </si>
   <si>
-    <t>инкапс. Наслед. И полиморф. Инкапс - максимально скрыть детали от пользователя. Наследование - есть возможность создавать родителей и детей.</t>
+    <t>private, protected пакет и наследники, friendly только пакет, public только из класса</t>
+  </si>
+  <si>
+    <t>инкапс. Наслед. И полиморф. Инкапс - максимально скрыть детали от пользователя. Наследование - есть возможность создавать родителей и детей. Полиморфизм проявляется в javaв виде перегрузки методов: overload и override</t>
+  </si>
+  <si>
+    <t>метод, вызываемый при создании объекта, т.е. при new</t>
+  </si>
+  <si>
+    <t>конструктор, даже если его не видно, он есть.</t>
+  </si>
+  <si>
+    <t>может, чтобы не дублировать код</t>
+  </si>
+  <si>
+    <t>да, super()</t>
+  </si>
+  <si>
+    <t>который создается внутри класса, при компиляции будет столько, сколько классов было</t>
+  </si>
+  <si>
+    <t>класс, объявленный прямо в коде</t>
+  </si>
+  <si>
+    <t>от него все наследуем</t>
+  </si>
+  <si>
+    <t>переводит объект в строку, например при конкатенации строк или выводе в консоль</t>
+  </si>
+  <si>
+    <t>сравнение объектов, == сравнивает ссылки</t>
+  </si>
+  <si>
+    <t>уникальный идентификатор объекта, высчитывается 1 раз для каждого, не должен повторяться. Иногда бывает (коллизия хешкода), т.к. Hashcod  - это long</t>
+  </si>
+  <si>
+    <t>уборщик мусора вызывает перед удалением объекта</t>
+  </si>
+  <si>
+    <t>класс - как макет, по которому строятся объекты. класс может быть объектом</t>
+  </si>
+  <si>
+    <t>выдает копию объекта, чтобы не изменили оригинал. Есть ньюансы</t>
+  </si>
+  <si>
+    <t>получить класс в виде объекта</t>
+  </si>
+  <si>
+    <t>меод с ключевым словом абстракт и нет тела</t>
+  </si>
+  <si>
+    <t>класс с ключевым словом абстракт, если существование объектов этого класса бессмысленно, делается для наследования</t>
+  </si>
+  <si>
+    <t>может, лишь бы было слово абстракт</t>
+  </si>
+  <si>
+    <t>класс, у которого все методы абстрактные (по умолчанию они public и abstract, писать их не надо) и нет свойств. Поскольку свойства константы.</t>
+  </si>
+  <si>
+    <t>статик - свойство общее для класса. Все, что помечено ключевым словом статик - является атрибутом не объекта, а класса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">финал - запрещает оверрайдить метод,изменять переменную. На классе запрещает наследование. </t>
+  </si>
+  <si>
+    <t>оверрайд - перегрузка методов при наследований, оверлоад - методы с одинаковыми названиями внутри класса, но с разными входящими параметрами или разным количеством</t>
+  </si>
+  <si>
+    <t>для разделения пространства имен. Начинаем уровень домена\название компании\название проекта и т.д.надо, чтобы классы с одинаковым названием не путались.</t>
+  </si>
+  <si>
+    <t>специальная форма метаданных в исходном коде. На любых уровнях.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">override, suppresswarning, deprecated, своя @interface </t>
+  </si>
+  <si>
+    <t>таргет - ограничиваем куда будем вешать аннотацию, ретеншион - когда она будет использоваться: source - на этапе компиляции, class - пишется в класс файл, но не доступна на этапе выполнения, т.е. не пишется в байт-код класс-файла, runtime - записывается в класс-файл и доступна во время выполнения через reflection</t>
+  </si>
+  <si>
+    <t>параметризация, позволяет не определять жестко тип</t>
+  </si>
+  <si>
+    <t>коллекции</t>
+  </si>
+  <si>
+    <t>управляет парами &lt;ключ,значение&gt;</t>
+  </si>
+  <si>
+    <t>set не допускает дубликаты и null. hashset неупорядоченное множество на основе хешкода, treeset упорядоченноепо возрастанию, но без индексов. Hashcod переопределяем одновременно с equals, если это надо.</t>
+  </si>
+  <si>
+    <t>linkedlist - двусвязный список, допускает дубликаты и null, есть индекс.</t>
+  </si>
+  <si>
+    <t>очереди</t>
+  </si>
+  <si>
+    <t>чтобы обойти ситуацию исключение</t>
+  </si>
+  <si>
+    <t>exception ловим ситуацию исключение, runtime - не ловим, посколько уэто скорее всего ошибка логики кода</t>
+  </si>
+  <si>
+    <t>throws -  в сигнатуре метода все чем может кидаться, trow - кидаем мы</t>
+  </si>
+  <si>
+    <t>можно, но не стоит, потому, что слишком абстрактное исключение. Надо уточнять какое</t>
+  </si>
+  <si>
+    <t>выполняется всегда, даже когда был ретурн</t>
+  </si>
+  <si>
+    <t>можно, через | или много кетчей, можно более абстрактным ексепшеном</t>
+  </si>
+  <si>
+    <t>чтение байт, пишет байты, читаем текст, пишем текст</t>
+  </si>
+  <si>
+    <t>для более быстрого чтения</t>
+  </si>
+  <si>
+    <t>чтобы не болтались в памяти, try with resourses, - ее дает interface autoclosable</t>
+  </si>
+  <si>
+    <t>создать, удалить, размер, но нельзя лезть в контент, отличий между файлом и папкой нет</t>
+  </si>
+  <si>
+    <t>преобразование объектов в байты. Например, для временного сохранения.</t>
+  </si>
+  <si>
+    <t>objectoutpoutstream, objectinputstream</t>
+  </si>
+  <si>
+    <t>"версия сохранения", если есть изменения влекут за собой изменения данных, то надо менять id</t>
+  </si>
+  <si>
+    <t>исключаем это свойство из мериализируемых</t>
+  </si>
+  <si>
+    <t>процесс один, потоков много</t>
+  </si>
+  <si>
+    <t>currenttread()</t>
+  </si>
+  <si>
+    <t>.sleap()</t>
+  </si>
+  <si>
+    <t>shedulledservice</t>
+  </si>
+  <si>
+    <t>потоки, которые останавливаются вместе с основным потоком</t>
   </si>
 </sst>
 </file>
@@ -900,7 +1053,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -934,6 +1087,13 @@
       <sz val="11"/>
       <color rgb="FF3C3C3C"/>
       <name val="OpenSans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1095,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1200,6 +1360,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1926,14 +2087,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="48.85546875" customWidth="1"/>
-    <col min="2" max="2" width="80.42578125" customWidth="1"/>
+    <col min="2" max="2" width="90.7109375" customWidth="1"/>
     <col min="3" max="3" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2145,7 +2306,7 @@
         <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
@@ -2153,274 +2314,397 @@
       <c r="B24" s="18" t="s">
         <v>45</v>
       </c>
+      <c r="C24" s="50" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="47"/>
       <c r="B25" s="26" t="s">
         <v>46</v>
       </c>
+      <c r="C25" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="47"/>
       <c r="B26" s="18" t="s">
         <v>47</v>
       </c>
+      <c r="C26" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="18" t="s">
         <v>48</v>
       </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="47"/>
       <c r="B28" s="18" t="s">
         <v>49</v>
       </c>
+      <c r="C28" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="47"/>
       <c r="B29" s="18" t="s">
         <v>51</v>
       </c>
+      <c r="C29" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="47"/>
       <c r="B30" s="18" t="s">
         <v>52</v>
       </c>
+      <c r="C30" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="47"/>
       <c r="B31" s="18" t="s">
         <v>53</v>
       </c>
+      <c r="C31" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="47"/>
       <c r="B33" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="47"/>
       <c r="B34" s="18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="47"/>
       <c r="B35" s="18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="47"/>
       <c r="B36" s="18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C36" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="47"/>
       <c r="B37" s="18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="47"/>
       <c r="B38" s="18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="12.75">
+      <c r="C38" s="50" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="12.75">
       <c r="A39" s="47"/>
       <c r="B39" s="18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="12.75">
+      <c r="C39" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="12.75">
       <c r="A40" s="47"/>
       <c r="B40" s="18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="12.75">
+      <c r="C40" s="50" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="12.75">
       <c r="A41" s="47"/>
       <c r="B41" s="18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="25.5">
+      <c r="C41" s="50" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="25.5">
       <c r="A42" s="47"/>
       <c r="B42" s="18" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="12.75">
+      <c r="C42" s="50" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="12.75">
       <c r="A43" s="47"/>
       <c r="B43" s="18" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="12.75">
+      <c r="C43" s="50" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="12.75">
       <c r="A44" s="47"/>
       <c r="B44" s="18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="12.75">
+      <c r="C44" s="50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="12.75">
       <c r="A45" s="47"/>
       <c r="B45" s="18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="25.5">
+      <c r="C45" s="50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="25.5">
       <c r="A46" s="47"/>
       <c r="B46" s="18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="12.75">
+      <c r="C46" s="50" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="12.75">
       <c r="A47" s="47"/>
       <c r="B47" s="26" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="12.75">
+      <c r="C47" s="50" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="12.75">
       <c r="A48" s="45"/>
       <c r="B48" s="26" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="12.75">
+      <c r="C48" s="50" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="12.75">
       <c r="A49" s="46" t="s">
         <v>89</v>
       </c>
       <c r="B49" s="26" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="12.75">
+      <c r="C49" s="50" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="12.75">
       <c r="A50" s="47"/>
       <c r="B50" s="26" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="12.75">
+      <c r="C50" s="50" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="12.75">
       <c r="A51" s="45"/>
       <c r="B51" s="26" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="12.75">
+      <c r="C51" s="50" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="12.75">
       <c r="A52" s="46" t="s">
         <v>95</v>
       </c>
       <c r="B52" s="26" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="12.75">
+      <c r="C52" s="50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="12.75">
       <c r="A53" s="45"/>
       <c r="B53" s="26" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="12.75">
+      <c r="C53" s="50" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="12.75">
       <c r="A54" s="46" t="s">
         <v>77</v>
       </c>
       <c r="B54" s="26" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="12.75">
+      <c r="C54" s="50" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="12.75">
       <c r="A55" s="47"/>
       <c r="B55" s="26" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="12.75">
+      <c r="C55" s="50" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="12.75">
       <c r="A56" s="47"/>
       <c r="B56" s="26" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="12.75">
+      <c r="C56" s="50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="12.75">
       <c r="A57" s="47"/>
       <c r="B57" s="26" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="12.75">
+    <row r="58" spans="1:3" ht="12.75">
       <c r="A58" s="45"/>
       <c r="B58" s="26" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="12.75">
+      <c r="C58" s="50" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="12.75">
       <c r="A59" s="46" t="s">
         <v>113</v>
       </c>
       <c r="B59" s="26" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="12.75">
+      <c r="C59" s="50" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="12.75">
       <c r="A60" s="47"/>
       <c r="B60" s="26" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="12.75">
+      <c r="C60" s="50" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="12.75">
       <c r="A61" s="47"/>
       <c r="B61" s="26" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="12.75">
+      <c r="C61" s="50" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="12.75">
       <c r="A62" s="47"/>
       <c r="B62" s="30" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="12.75">
+      <c r="C62" s="50" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="12.75">
       <c r="A63" s="47"/>
       <c r="B63" s="30" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="12.75">
+    <row r="64" spans="1:3" ht="12.75">
       <c r="A64" s="47"/>
       <c r="B64" s="26" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="12.75">
+      <c r="C64" s="50" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="12.75">
       <c r="A65" s="47"/>
       <c r="B65" s="26" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="12.75">
+      <c r="C65" s="50" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="12.75">
       <c r="A66" s="47"/>
       <c r="B66" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="12.75">
+      <c r="C66" s="50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="171" customHeight="1">
       <c r="A67" s="45"/>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="12.75">
+    <row r="68" spans="1:3" ht="12.75">
       <c r="A68" s="46" t="s">
         <v>140</v>
       </c>
@@ -2428,111 +2712,153 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="12.75">
+    <row r="69" spans="1:3" ht="12.75">
       <c r="A69" s="47"/>
       <c r="B69" s="26" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="12.75">
+      <c r="C69" s="50" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="12.75">
       <c r="A70" s="47"/>
       <c r="B70" s="26" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="12.75">
+      <c r="C70" s="50" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="12.75">
       <c r="A71" s="47"/>
       <c r="B71" s="26" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="12.75">
+    <row r="72" spans="1:3" ht="12.75">
       <c r="A72" s="47"/>
       <c r="B72" s="26" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="12.75">
+      <c r="C72" s="50" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="12.75">
       <c r="A73" s="47"/>
       <c r="B73" s="26" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="12.75">
+      <c r="C73" s="50" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="12.75">
       <c r="A74" s="47"/>
       <c r="B74" s="26" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="12.75">
+      <c r="C74" s="50" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="12.75">
       <c r="A75" s="47"/>
       <c r="B75" s="26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="12.75">
+    <row r="76" spans="1:3" ht="12.75">
       <c r="A76" s="47"/>
       <c r="B76" s="26" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="12.75">
+      <c r="C76" s="50" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="12.75">
       <c r="A77" s="47"/>
       <c r="B77" s="26" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="12.75">
+      <c r="C77" s="50" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="12.75">
       <c r="A78" s="45"/>
       <c r="B78" s="26" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="12.75">
+      <c r="C78" s="50" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="12.75">
       <c r="A79" s="31" t="s">
         <v>165</v>
       </c>
       <c r="B79" s="26" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="12.75">
+      <c r="C79" s="50" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="12.75">
       <c r="A80" s="32"/>
       <c r="B80" s="26" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="12.75">
+      <c r="C80" s="50" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="12.75">
       <c r="A81" s="31"/>
       <c r="B81" s="18" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="12.75">
+      <c r="C81" s="50" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="12.75">
       <c r="A82" s="31"/>
       <c r="B82" s="18" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="12.75">
+    <row r="83" spans="1:3" ht="12.75">
       <c r="A83" s="32"/>
       <c r="B83" s="18" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="25.5">
+      <c r="C83" s="50" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="25.5">
       <c r="A84" s="32"/>
       <c r="B84" s="18" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="12.75">
+      <c r="C84" s="50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="12.75">
       <c r="A85" s="33"/>
       <c r="B85" s="34" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="51">
+      <c r="C85" s="50" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="51">
       <c r="A86" s="35" t="s">
         <v>174</v>
       </c>
@@ -2540,7 +2866,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15">
+    <row r="87" spans="1:3" ht="15">
       <c r="A87" s="36" t="s">
         <v>116</v>
       </c>
@@ -2548,31 +2874,31 @@
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="12.75">
+    <row r="88" spans="1:3" ht="12.75">
       <c r="A88" s="33"/>
       <c r="B88" s="34" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="12.75">
+    <row r="89" spans="1:3" ht="12.75">
       <c r="A89" s="33"/>
       <c r="B89" s="34" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="12.75">
+    <row r="90" spans="1:3" ht="12.75">
       <c r="A90" s="33"/>
       <c r="B90" s="34" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="25.5">
+    <row r="91" spans="1:3" ht="25.5">
       <c r="A91" s="33"/>
       <c r="B91" s="34" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="12.75">
+    <row r="92" spans="1:3" ht="12.75">
       <c r="A92" s="37" t="s">
         <v>181</v>
       </c>
@@ -2580,25 +2906,25 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="12.75">
+    <row r="93" spans="1:3" ht="12.75">
       <c r="A93" s="33"/>
       <c r="B93" s="38" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="12.75">
+    <row r="94" spans="1:3" ht="12.75">
       <c r="A94" s="33"/>
       <c r="B94" s="34" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="12.75">
+    <row r="95" spans="1:3" ht="12.75">
       <c r="A95" s="33"/>
       <c r="B95" s="34" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="12.75">
+    <row r="96" spans="1:3" ht="12.75">
       <c r="A96" s="33"/>
       <c r="B96" s="34" t="s">
         <v>186</v>
@@ -2954,6 +3280,7 @@
     <mergeCell ref="A52:A53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4109,16 +4436,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="A23:A48"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A59:A67"/>
     <mergeCell ref="A54:A58"/>
     <mergeCell ref="A68:A78"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="A23:A48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
